--- a/biology/Mycologie/Gymnopus/Gymnopus.xlsx
+++ b/biology/Mycologie/Gymnopus/Gymnopus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gymnopus est un genre de champignons basidiomycètes de la famille des Omphalotaceae. 
 Le genre comprend plus d'une centaine d'espèces dont la plupart étaient autrefois classées dans les Collybies : la majorité des collybies à spores blanchâtres, dont des espèces très communes telles que la Collybie des chênes ou la Collybie à pied en fuseau, Gymnopus fusipes autrefois Collybia fusipes, sont maintenant placées dans le genre Gymnopus, tandis que celles à spores rosées sont placées dans le genre Rhodocollybia. 
@@ -512,7 +524,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Gymnopus Duméril &amp; Bibron, 1835 est un synonyme du genre de tortue Trionyx Geoffroy Saint-Hilaire, 1809.</t>
         </is>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (4 février 2019)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (4 février 2019) :
 Gymnopus acervatus (Fr.) Murrill
 Gymnopus alkalivirens (Singer) Halling
 Gymnopus alpinus (Vilgalys &amp; O.K. Mill.) Antonín &amp; Noordel.
@@ -576,7 +592,7 @@
 Gymnopus semihirtipes (Peck) Halling
 Gymnopus terginus (Fr.) Antonín &amp; Noordel.
 Gymnopus vernus (Ryman) Antonín &amp; Noordel.
-Selon Catalogue of Life                                   (4 février 2019)[3] :
+Selon Catalogue of Life                                   (4 février 2019) :
 Gymnopus agricola Murrill, 1916
 Gymnopus albipes Har. Takah. &amp; Taneyama, 2016
 Gymnopus albistrictus Murrill, 1938
@@ -815,7 +831,7 @@
 Gymnopus virginianus Murrill, 1916
 Gymnopus vitellinipes A. W. Wilson, Desjardin &amp; E. Horak, 2004
 Gymnopus volkertii Murrill, 1916
-Selon Index Fungorum                                      (4 février 2019)[4] :
+Selon Index Fungorum                                      (4 février 2019) :
 Gymnopus agricola Murrill 1916
 Gymnopus albipes Har. Takah. &amp; Taneyama 2016
 Gymnopus albistrictus Murrill 1938
@@ -1070,7 +1086,7 @@
 Gymnopus vitellinipes A.W. Wilson, Desjardin &amp; E. Horak 2004
 Gymnopus volkertii Murrill 1916
 Gymnopus westii (Murrill) E. César, Bandala &amp; Montoya 2018
-Selon MycoBank                                            (4 février 2019)[1] :
+Selon MycoBank                                            (4 février 2019) :
 Gymnopus acervatus
 Gymnopus agricola
 Gymnopus albidulus
@@ -1420,7 +1436,8 @@
 Gymnopus tomentellus
 Gymnopus tortipes
 Gymnopus trabzonensis
-Gymnopus tri</t>
+Gymnopus tricholoma
+Gymn</t>
         </is>
       </c>
     </row>
